--- a/stores/analisis_modelos.xlsx
+++ b/stores/analisis_modelos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">lambda</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0153912087055105</t>
   </si>
   <si>
     <t xml:space="preserve">0.0140206347845382</t>
@@ -428,34 +431,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.790713145367071</v>
+        <v>0.790655727213881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.964777608733356</v>
+        <v>0.96479924671636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269066226712084</v>
+        <v>0.269411938726706</v>
       </c>
       <c r="E2" t="n">
-        <v>0.825500363331481</v>
+        <v>0.825586938163414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.300296371434391</v>
+        <v>0.300712399516157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00224303259062115</v>
+        <v>0.0039356663201051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00258340958186108</v>
+        <v>0.0017076901041137</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00556059054207138</v>
+        <v>0.00292702740346671</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00309744188296569</v>
+        <v>0.000983084654728542</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0108457214691772</v>
+        <v>0.00217451300354179</v>
       </c>
     </row>
     <row r="3">
@@ -463,109 +466,109 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.790103367466991</v>
+        <v>0.790094439344204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.974208490858483</v>
+        <v>0.974901470212843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229830986484757</v>
+        <v>0.227495187295058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82518856728612</v>
+        <v>0.825275184115689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272074839114611</v>
+        <v>0.270553779878389</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00422388378237078</v>
+        <v>0.00400898541089515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00113748901453488</v>
+        <v>0.000983865440256281</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00516575199958985</v>
+        <v>0.00660686629302962</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00181365724000331</v>
+        <v>0.000751217251980834</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00789265676489292</v>
+        <v>0.0063557987711503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.790132269729283</v>
+        <v>0.790069987873999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.974295115475926</v>
+        <v>0.974262626261916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230090707886773</v>
+        <v>0.229527975063751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.825309821904483</v>
+        <v>0.825171249150638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.272523379567628</v>
+        <v>0.271810481025635</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00610776372717741</v>
+        <v>0.00405568814001805</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00085305101059784</v>
+        <v>0.00208663499661409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00760679091723983</v>
+        <v>0.00502521396002505</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00136903272574956</v>
+        <v>0.00126978429789727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00850606315149932</v>
+        <v>0.00458481059562871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.767650146292542</v>
+        <v>0.76769247023468</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000302814945881395</v>
+        <v>0.000302805589923109</v>
       </c>
       <c r="E5" t="n">
-        <v>0.799866634650523</v>
+        <v>0.799866636000343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000484149321207175</v>
+        <v>0.000484235993190166</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00278236680373911</v>
+        <v>0.00439481325137891</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000448553968605784</v>
+        <v>0.000246622865204638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0000988536531777889</v>
+        <v>0.0000499728925881218</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00071705042295896</v>
+        <v>0.000394346542243373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>0.790971947146418</v>
@@ -600,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0.790476667765403</v>
